--- a/reconstruction-tools-assessment/supplementary material/S7_table.xlsx
+++ b/reconstruction-tools-assessment/supplementary material/S7_table.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Research_Projects\Review_reconstruction\manuscript\supplementary material\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80491978-6746-4E72-98D3-B0BDA71EEE65}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9402"/>
+    <workbookView xWindow="3468" yWindow="312" windowWidth="17280" windowHeight="9444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S7 Table" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -163,7 +169,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -534,11 +540,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -584,25 +590,25 @@
         <v>4</v>
       </c>
       <c r="B4" s="5">
-        <v>1.0044004400440001</v>
+        <v>1.04489337822671</v>
       </c>
       <c r="C4" s="5">
-        <v>1.69473684210526</v>
+        <v>1.8131868131868101</v>
       </c>
       <c r="D4" s="5">
         <v>1.5283505154639201</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" ref="E4:E30" si="0">B4-C4</f>
-        <v>-0.6903364020612599</v>
+        <v>-0.76829343496010005</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" ref="F4:F30" si="1">C4-D4</f>
-        <v>0.1663863266413399</v>
+        <v>0.28483629772288999</v>
       </c>
       <c r="G4" s="6">
         <f>B4-D4</f>
-        <v>-0.52395007541992</v>
+        <v>-0.48345713723721007</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -610,25 +616,25 @@
         <v>5</v>
       </c>
       <c r="B5" s="5">
-        <v>1.0270574971815107</v>
+        <v>1.06904487917146</v>
       </c>
       <c r="C5" s="5">
-        <v>1.7004219409282699</v>
+        <v>1.81938325991189</v>
       </c>
       <c r="D5" s="5">
         <v>1.5416666666666701</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>-0.67336444374675919</v>
+        <v>-0.75033838074043002</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="1"/>
-        <v>0.15875527426159985</v>
+        <v>0.27771659324521991</v>
       </c>
       <c r="G5" s="6">
         <f t="shared" ref="G5:G30" si="2">B5-D5</f>
-        <v>-0.51460916948515933</v>
+        <v>-0.47262178749521011</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -636,25 +642,25 @@
         <v>6</v>
       </c>
       <c r="B6" s="5">
-        <v>1.8</v>
+        <v>1.83769633507853</v>
       </c>
       <c r="C6" s="5">
-        <v>1.94559585492228</v>
+        <v>1.9842931937172801</v>
       </c>
       <c r="D6" s="5">
-        <v>3.5384615384615401</v>
+        <v>3.5241379310344798</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="0"/>
-        <v>-0.14559585492228</v>
+        <v>-0.14659685863875005</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="1"/>
-        <v>-1.5928656835392601</v>
+        <v>-1.5398447373171997</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" si="2"/>
-        <v>-1.7384615384615401</v>
+        <v>-1.6864415959559498</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -662,25 +668,25 @@
         <v>7</v>
       </c>
       <c r="B7" s="5">
-        <v>1.1295681063122924</v>
+        <v>1.1829652996845399</v>
       </c>
       <c r="C7" s="5">
-        <v>1.26825396825397</v>
+        <v>1.32547169811321</v>
       </c>
       <c r="D7" s="5">
-        <v>2.4130434782608701</v>
+        <v>2.3734439834024901</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="0"/>
-        <v>-0.13868586194167754</v>
+        <v>-0.14250639842867008</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="1"/>
-        <v>-1.1447895100069001</v>
+        <v>-1.0479722852892801</v>
       </c>
       <c r="G7" s="6">
         <f t="shared" si="2"/>
-        <v>-1.2834753719485776</v>
+        <v>-1.1904786837179502</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -688,25 +694,25 @@
         <v>8</v>
       </c>
       <c r="B8" s="5">
-        <v>1.1316666666666666</v>
+        <v>1.0407876230661</v>
       </c>
       <c r="C8" s="5">
-        <v>1.26941362916006</v>
+        <v>1.2452554744525499</v>
       </c>
       <c r="D8" s="5">
-        <v>2.4061135371178999</v>
+        <v>2.22900763358779</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>-0.13774696249339335</v>
+        <v>-0.20446785138644996</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="1"/>
-        <v>-1.1366999079578399</v>
+        <v>-0.98375215913524006</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" si="2"/>
-        <v>-1.2744468704512333</v>
+        <v>-1.18822001052169</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -714,25 +720,25 @@
         <v>9</v>
       </c>
       <c r="B9" s="5">
-        <v>1.9759759759759761</v>
+        <v>1.9939577039274901</v>
       </c>
       <c r="C9" s="5">
-        <v>2.4329896907216502</v>
+        <v>2.46875</v>
       </c>
       <c r="D9" s="5">
         <v>2.8443113772455102</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
-        <v>-0.45701371474567409</v>
+        <v>-0.47479229607250995</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="1"/>
-        <v>-0.41132168652386003</v>
+        <v>-0.3755613772455102</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" si="2"/>
-        <v>-0.86833540126953412</v>
+        <v>-0.85035367331802014</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -740,25 +746,25 @@
         <v>10</v>
       </c>
       <c r="B10" s="5">
-        <v>0.29706115965051627</v>
+        <v>0.32226720647773299</v>
       </c>
       <c r="C10" s="5">
-        <v>0.38738019169329102</v>
+        <v>0.40614886731391597</v>
       </c>
       <c r="D10" s="5">
         <v>1.87341772151899</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="0"/>
-        <v>-9.031903204277475E-2</v>
+        <v>-8.3881660836182981E-2</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="1"/>
-        <v>-1.4860375298256989</v>
+        <v>-1.467268854205074</v>
       </c>
       <c r="G10" s="6">
         <f t="shared" si="2"/>
-        <v>-1.5763565618684736</v>
+        <v>-1.551150515041257</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -766,25 +772,25 @@
         <v>11</v>
       </c>
       <c r="B11" s="5">
-        <v>0.2578231292517007</v>
+        <v>0.27869986168741401</v>
       </c>
       <c r="C11" s="5">
-        <v>0.34865629420084898</v>
+        <v>0.36480686695279002</v>
       </c>
       <c r="D11" s="5">
         <v>1.87341772151899</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="0"/>
-        <v>-9.0833164949148282E-2</v>
+        <v>-8.6107005265376013E-2</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="1"/>
-        <v>-1.5247614273181411</v>
+        <v>-1.5086108545662</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" si="2"/>
-        <v>-1.6155945922672892</v>
+        <v>-1.5947178598315759</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -792,25 +798,25 @@
         <v>12</v>
       </c>
       <c r="B12" s="5">
-        <v>0.32368896925858959</v>
+        <v>0.34806629834254099</v>
       </c>
       <c r="C12" s="5">
-        <v>0.40392826643894097</v>
+        <v>0.42547660311958402</v>
       </c>
       <c r="D12" s="5">
         <v>1.87341772151899</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="0"/>
-        <v>-8.0239297180351388E-2</v>
+        <v>-7.7410304777043026E-2</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="1"/>
-        <v>-1.469489455080049</v>
+        <v>-1.447941118399406</v>
       </c>
       <c r="G12" s="6">
         <f t="shared" si="2"/>
-        <v>-1.5497287522604004</v>
+        <v>-1.5253514231764491</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -818,25 +824,25 @@
         <v>13</v>
       </c>
       <c r="B13" s="5">
-        <v>0.3295238095238095</v>
+        <v>0.35271317829457399</v>
       </c>
       <c r="C13" s="5">
-        <v>0.40944881889763801</v>
+        <v>0.43416370106761598</v>
       </c>
       <c r="D13" s="5">
         <v>1.87341772151899</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="0"/>
-        <v>-7.9925009373828515E-2</v>
+        <v>-8.1450522773041989E-2</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>-1.463968902621352</v>
+        <v>-1.439254020451374</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" si="2"/>
-        <v>-1.5438939119951804</v>
+        <v>-1.5207045432244159</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -844,25 +850,25 @@
         <v>14</v>
       </c>
       <c r="B14" s="5">
-        <v>0.29706115965051627</v>
+        <v>0.32226720647773299</v>
       </c>
       <c r="C14" s="5">
-        <v>0.38738019169329102</v>
+        <v>0.40614886731391597</v>
       </c>
       <c r="D14" s="5">
         <v>1.87341772151899</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" si="0"/>
-        <v>-9.031903204277475E-2</v>
+        <v>-8.3881660836182981E-2</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="1"/>
-        <v>-1.4860375298256989</v>
+        <v>-1.467268854205074</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" si="2"/>
-        <v>-1.5763565618684736</v>
+        <v>-1.551150515041257</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -870,25 +876,25 @@
         <v>15</v>
       </c>
       <c r="B15" s="5">
-        <v>0.51463414634146343</v>
+        <v>0.53144266337854495</v>
       </c>
       <c r="C15" s="5">
-        <v>0.61502890173410396</v>
+        <v>0.64546525323910497</v>
       </c>
       <c r="D15" s="5">
         <v>1.71428571428571</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" si="0"/>
-        <v>-0.10039475539264053</v>
+        <v>-0.11402258986056002</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" si="1"/>
-        <v>-1.099256812551606</v>
+        <v>-1.068820461046605</v>
       </c>
       <c r="G15" s="6">
         <f t="shared" si="2"/>
-        <v>-1.1996515679442465</v>
+        <v>-1.182843050907165</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -896,25 +902,25 @@
         <v>16</v>
       </c>
       <c r="B16" s="5">
-        <v>0.51463414634146343</v>
+        <v>0.53144266337854495</v>
       </c>
       <c r="C16" s="5">
-        <v>0.61502890173410396</v>
+        <v>0.64546525323910497</v>
       </c>
       <c r="D16" s="5">
         <v>1.71428571428571</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" si="0"/>
-        <v>-0.10039475539264053</v>
+        <v>-0.11402258986056002</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" si="1"/>
-        <v>-1.099256812551606</v>
+        <v>-1.068820461046605</v>
       </c>
       <c r="G16" s="6">
         <f t="shared" si="2"/>
-        <v>-1.1996515679442465</v>
+        <v>-1.182843050907165</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -922,25 +928,25 @@
         <v>17</v>
       </c>
       <c r="B17" s="5">
-        <v>0.59180977542932633</v>
+        <v>0.60239361702127703</v>
       </c>
       <c r="C17" s="5">
-        <v>0.59006928406466497</v>
+        <v>0.61619718309859195</v>
       </c>
       <c r="D17" s="5">
         <v>1.4833836858006</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" si="0"/>
-        <v>1.7404913646613673E-3</v>
+        <v>-1.3803566077314922E-2</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="1"/>
-        <v>-0.89331440173593502</v>
+        <v>-0.86718650270200803</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" si="2"/>
-        <v>-0.89157391037127365</v>
+        <v>-0.88099006877932295</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -948,25 +954,25 @@
         <v>18</v>
       </c>
       <c r="B18" s="5">
-        <v>0.59342105263157896</v>
+        <v>0.60397350993377497</v>
       </c>
       <c r="C18" s="5">
-        <v>0.58986175115207395</v>
+        <v>0.61592505854800905</v>
       </c>
       <c r="D18" s="5">
         <v>1.4700598802395199</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" si="0"/>
-        <v>3.559301479505006E-3</v>
+        <v>-1.1951548614234087E-2</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="1"/>
-        <v>-0.88019812908744599</v>
+        <v>-0.85413482169151089</v>
       </c>
       <c r="G18" s="6">
         <f t="shared" si="2"/>
-        <v>-0.87663882760794098</v>
+        <v>-0.86608637030574498</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -974,25 +980,25 @@
         <v>19</v>
       </c>
       <c r="B19" s="5">
-        <v>0.60385144429160942</v>
+        <v>0.61272475795297399</v>
       </c>
       <c r="C19" s="5">
-        <v>0.61846901579586899</v>
+        <v>0.64444444444444504</v>
       </c>
       <c r="D19" s="5">
         <v>1.4787878787878801</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" si="0"/>
-        <v>-1.4617571504259574E-2</v>
+        <v>-3.1719686491471055E-2</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" si="1"/>
-        <v>-0.8603188629920111</v>
+        <v>-0.83434343434343505</v>
       </c>
       <c r="G19" s="6">
         <f t="shared" si="2"/>
-        <v>-0.87493643449627068</v>
+        <v>-0.86606312083490611</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1000,25 +1006,25 @@
         <v>20</v>
       </c>
       <c r="B20" s="5">
-        <v>0.53333333333333299</v>
+        <v>0.54235294117647104</v>
       </c>
       <c r="C20" s="5">
-        <v>0.53416149068323004</v>
+        <v>0.55835962145110396</v>
       </c>
       <c r="D20" s="5">
         <v>1.2517482517482501</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" si="0"/>
-        <v>-8.2815734989705181E-4</v>
+        <v>-1.6006680274632923E-2</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" si="1"/>
-        <v>-0.71758676106502006</v>
+        <v>-0.69338863029714615</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" si="2"/>
-        <v>-0.71841491841491711</v>
+        <v>-0.70939531057177907</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1026,25 +1032,25 @@
         <v>21</v>
       </c>
       <c r="B21" s="5">
-        <v>0.53521126760563376</v>
+        <v>0.54427390791027197</v>
       </c>
       <c r="C21" s="5">
-        <v>0.53686396677050896</v>
+        <v>0.56118143459915604</v>
       </c>
       <c r="D21" s="5">
         <v>1.24708624708625</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" si="0"/>
-        <v>-1.6526991648752043E-3</v>
+        <v>-1.6907526688884067E-2</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" si="1"/>
-        <v>-0.71022228031574108</v>
+        <v>-0.68590481248709401</v>
       </c>
       <c r="G21" s="6">
         <f t="shared" si="2"/>
-        <v>-0.71187497948061629</v>
+        <v>-0.70281233917597807</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1052,25 +1058,25 @@
         <v>22</v>
       </c>
       <c r="B22" s="5">
-        <v>0.55487804878048774</v>
+        <v>0.5625</v>
       </c>
       <c r="C22" s="5">
-        <v>0.56488549618320605</v>
+        <v>0.58914728682170603</v>
       </c>
       <c r="D22" s="5">
         <v>1.24942263279446</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" si="0"/>
-        <v>-1.0007447402718306E-2</v>
+        <v>-2.6647286821706029E-2</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="1"/>
-        <v>-0.68453713661125393</v>
+        <v>-0.66027534597275395</v>
       </c>
       <c r="G22" s="6">
         <f t="shared" si="2"/>
-        <v>-0.69454458401397223</v>
+        <v>-0.68692263279445998</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1078,25 +1084,25 @@
         <v>23</v>
       </c>
       <c r="B23" s="5">
-        <v>0.46117274167987327</v>
+        <v>0.49432739059967601</v>
       </c>
       <c r="C23" s="5">
-        <v>0.49361207897793302</v>
+        <v>0.52307692307692299</v>
       </c>
       <c r="D23" s="5">
         <v>0.86149584487534603</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" si="0"/>
-        <v>-3.2439337298059756E-2</v>
+        <v>-2.8749532477246986E-2</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="1"/>
-        <v>-0.36788376589741301</v>
+        <v>-0.33841892179842303</v>
       </c>
       <c r="G23" s="6">
         <f t="shared" si="2"/>
-        <v>-0.40032310319547276</v>
+        <v>-0.36716845427567002</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1104,25 +1110,25 @@
         <v>24</v>
       </c>
       <c r="B24" s="5">
-        <v>0.44596651445966512</v>
+        <v>0.47744945567651598</v>
       </c>
       <c r="C24" s="5">
-        <v>0.4765625</v>
+        <v>0.50454545454545496</v>
       </c>
       <c r="D24" s="5">
         <v>0.83858267716535395</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" si="0"/>
-        <v>-3.059598554033488E-2</v>
+        <v>-2.7095998868938986E-2</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" si="1"/>
-        <v>-0.36202017716535395</v>
+        <v>-0.33403722261989899</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" si="2"/>
-        <v>-0.39261616270568883</v>
+        <v>-0.36113322148883797</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1130,25 +1136,25 @@
         <v>25</v>
       </c>
       <c r="B25" s="5">
-        <v>0.46416938110749179</v>
+        <v>0.49833333333333302</v>
       </c>
       <c r="C25" s="5">
-        <v>0.5</v>
+        <v>0.53212121212121199</v>
       </c>
       <c r="D25" s="5">
         <v>0.89019033674963399</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" si="0"/>
-        <v>-3.5830618892508215E-2</v>
+        <v>-3.3787878787878978E-2</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" si="1"/>
-        <v>-0.39019033674963399</v>
+        <v>-0.358069124628422</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" si="2"/>
-        <v>-0.42602095564214221</v>
+        <v>-0.39185700341630098</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1156,25 +1162,25 @@
         <v>26</v>
       </c>
       <c r="B26" s="5">
-        <v>0.5714285714285714</v>
+        <v>0.61425576519916203</v>
       </c>
       <c r="C26" s="5">
-        <v>0.61595273264401795</v>
+        <v>0.64909638554216897</v>
       </c>
       <c r="D26" s="5">
         <v>1.1215932914046101</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" si="0"/>
-        <v>-4.4524161215446556E-2</v>
+        <v>-3.4840620343006945E-2</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="1"/>
-        <v>-0.50564055876059211</v>
+        <v>-0.47249690586244109</v>
       </c>
       <c r="G26" s="6">
         <f t="shared" si="2"/>
-        <v>-0.55016471997603866</v>
+        <v>-0.50733752620544803</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1182,25 +1188,25 @@
         <v>27</v>
       </c>
       <c r="B27" s="5">
-        <v>0.46249999999999997</v>
+        <v>0.495207667731629</v>
       </c>
       <c r="C27" s="5">
-        <v>0.49710982658959502</v>
+        <v>0.52470588235294102</v>
       </c>
       <c r="D27" s="5">
         <v>0.84471218206158005</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" si="0"/>
-        <v>-3.460982658959505E-2</v>
+        <v>-2.9498214621312024E-2</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" si="1"/>
-        <v>-0.34760235547198504</v>
+        <v>-0.32000629970863903</v>
       </c>
       <c r="G27" s="6">
         <f t="shared" si="2"/>
-        <v>-0.38221218206158009</v>
+        <v>-0.34950451432995105</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1208,25 +1214,25 @@
         <v>28</v>
       </c>
       <c r="B28" s="5">
-        <v>0.79856115107913661</v>
+        <v>0.811594202898551</v>
       </c>
       <c r="C28" s="5">
-        <v>0.78173374613003099</v>
+        <v>0.81545741324921095</v>
       </c>
       <c r="D28" s="5">
         <v>2.1052631578947398</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" si="0"/>
-        <v>1.6827404949105618E-2</v>
+        <v>-3.8632103506599513E-3</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" si="1"/>
-        <v>-1.3235294117647087</v>
+        <v>-1.2898057446455289</v>
       </c>
       <c r="G28" s="6">
         <f t="shared" si="2"/>
-        <v>-1.3067020068156032</v>
+        <v>-1.2936689549961888</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1234,25 +1240,25 @@
         <v>29</v>
       </c>
       <c r="B29" s="5">
-        <v>0.44457831325301206</v>
+        <v>0.44981862152357899</v>
       </c>
       <c r="C29" s="5">
-        <v>0.45722433460076001</v>
+        <v>0.47120921305182301</v>
       </c>
       <c r="D29" s="5">
         <v>1.01876675603217</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" si="0"/>
-        <v>-1.2646021347747949E-2</v>
+        <v>-2.1390591528244018E-2</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" si="1"/>
-        <v>-0.56154242143140998</v>
+        <v>-0.54755754298034698</v>
       </c>
       <c r="G29" s="6">
         <f t="shared" si="2"/>
-        <v>-0.57418844277915793</v>
+        <v>-0.56894813450859105</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1260,25 +1266,25 @@
         <v>30</v>
       </c>
       <c r="B30" s="5">
-        <v>0.42841163310961999</v>
+        <v>0.43322109988776702</v>
       </c>
       <c r="C30" s="5">
-        <v>0.45257452574525697</v>
+        <v>0.46581586144029202</v>
       </c>
       <c r="D30" s="5">
         <v>0.95971563981042696</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" si="0"/>
-        <v>-2.4162892635636979E-2</v>
+        <v>-3.2594761552524998E-2</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" si="1"/>
-        <v>-0.50714111406517004</v>
+        <v>-0.49389977837013493</v>
       </c>
       <c r="G30" s="6">
         <f t="shared" si="2"/>
-        <v>-0.53130400670080702</v>
+        <v>-0.52649453992265993</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1287,15 +1293,15 @@
       </c>
       <c r="B31" s="5">
         <f>MAX(B4:B30)</f>
-        <v>1.9759759759759761</v>
+        <v>1.9939577039274901</v>
       </c>
       <c r="C31" s="5">
         <f>MAX(C4:C30)</f>
-        <v>2.4329896907216502</v>
+        <v>2.46875</v>
       </c>
       <c r="D31" s="5">
         <f>MAX(D4:D30)</f>
-        <v>3.5384615384615401</v>
+        <v>3.5241379310344798</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -1306,11 +1312,11 @@
       </c>
       <c r="B32" s="5">
         <f>MIN(B4:B30)</f>
-        <v>0.2578231292517007</v>
+        <v>0.27869986168741401</v>
       </c>
       <c r="C32" s="5">
         <f>MIN(C4:C30)</f>
-        <v>0.34865629420084898</v>
+        <v>0.36480686695279002</v>
       </c>
       <c r="D32" s="4">
         <f>MIN(D4:D30)</f>
